--- a/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_5/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.532</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.616</v>
+        <v>17.553</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.965</v>
+        <v>-0.868</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.569</v>
+        <v>23.955</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.962</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.6</v>
+        <v>4.871</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.81042022645815</v>
+        <v>13.96086321923164</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.39357289570227</v>
+        <v>13.23145373056233</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.16549575132642</v>
+        <v>17.71412160260888</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5185517637981576</v>
+        <v>0.5936332153679302</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.36300726027279</v>
+        <v>16.99934250431747</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.03007461375708</v>
+        <v>23.01673820855677</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.083443241634534</v>
+        <v>3.293692556347548</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.6179648590157</v>
+        <v>26.97386289489434</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.77143665430968</v>
+        <v>28.47829791379039</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.00056776396131</v>
+        <v>25.22384232806007</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31.98779018666489</v>
+        <v>30.97725732346288</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.1718533253316</v>
+        <v>31.98274646233858</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.36975443725182</v>
+        <v>13.00618218861419</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.21391153789205</v>
+        <v>23.70770412845341</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.78882728142528</v>
+        <v>27.3618411690119</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>20.10038675412729</v>
+        <v>18.38218669032928</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>37.11670860854613</v>
+        <v>34.5247077237177</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43.84268629184626</v>
+        <v>42.53884918524663</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.172977639422577</v>
+        <v>6.916106186763873</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.52343241880846</v>
+        <v>28.17567613040579</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>45.3213836085813</v>
+        <v>45.24139376641259</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.130114280616741</v>
+        <v>7.422230518448821</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>48.42610057900337</v>
+        <v>45.63532942444245</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>66.38656375168105</v>
+        <v>66.37490252101904</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>47.2383740263773</v>
+        <v>46.65062411827423</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>58.98647948624922</v>
+        <v>58.68662791759638</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>66.48902093582657</v>
+        <v>69.95912741085208</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.68766733342748</v>
+        <v>17.36995338080137</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>65.57895217467384</v>
+        <v>64.45832059353252</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>73.55850321599641</v>
+        <v>72.7238504003016</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.66690851563188</v>
+        <v>24.9128119222479</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.63712390316393</v>
+        <v>43.16960400821473</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>52.43939755796923</v>
+        <v>50.87538862830033</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>10.89793456810793</v>
+        <v>9.77043374647139</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40.76771044428428</v>
+        <v>38.63937710696622</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.82685441829668</v>
+        <v>53.32950115398995</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>11.14571039806864</v>
+        <v>12.18040931907557</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>65.4493260970701</v>
+        <v>66.69742024080404</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>76.28382469171584</v>
+        <v>77.16929174719569</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>74.159486102408</v>
+        <v>73.01824278404285</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>85.18370684320692</v>
+        <v>85.26221973958776</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>91.64222468671969</v>
+        <v>92.2682376170078</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.84055964958027</v>
+        <v>31.27109267763421</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>85.58500238350257</v>
+        <v>83.70251077820564</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>89.4092902454195</v>
+        <v>87.71386455243965</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.97532346451109</v>
+        <v>8.9244563351171</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>37.62165746148612</v>
+        <v>36.90995919371319</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>42.06325701965896</v>
+        <v>40.55821674663674</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.48755613587084</v>
+        <v>5.170321145698139</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>42.6248316082857</v>
+        <v>41.70371464716365</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>48.00734597780206</v>
+        <v>47.0553668374378</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5.827339033644513</v>
+        <v>5.28492249003078</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>63.59955950786937</v>
+        <v>62.34873156998244</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>64.08162900505931</v>
+        <v>62.80758696951957</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>58.14068793415858</v>
+        <v>59.1118622624309</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>66.76046150913248</v>
+        <v>66.17476785395448</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>64.81871627751727</v>
+        <v>64.45515965140686</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.17123073281847</v>
+        <v>9.885546356376217</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>59.61993890561725</v>
+        <v>57.21333859145156</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>67.2845805824517</v>
+        <v>64.65025653719471</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>13.25973864429694</v>
+        <v>11.38794135705943</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>38.99597075741418</v>
+        <v>38.11592314771445</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.48040402910781</v>
+        <v>43.20699768638938</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.092118103815498</v>
+        <v>4.811388806156831</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>33.09323452817753</v>
+        <v>32.48968143647819</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>44.21939318140787</v>
+        <v>44.65703386697119</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6.054571169380647</v>
+        <v>6.079597002427182</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>56.32280523052474</v>
+        <v>55.34411353334725</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>71.74747922680794</v>
+        <v>71.95162471035648</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>53.12130555392097</v>
+        <v>52.03154720017935</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>66.80345149429877</v>
+        <v>65.1206894269946</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>69.57945799033189</v>
+        <v>69.70906707976431</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>14.55999097496841</v>
+        <v>7.885336273157222</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>69.25614611283504</v>
+        <v>66.80966018321739</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>76.01047453578988</v>
+        <v>73.94496002335025</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>14.72610480995337</v>
+        <v>10.56714024399083</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.42390296416548</v>
+        <v>43.576608971626</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.00960208593594</v>
+        <v>47.49447879697864</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1.368076001283377</v>
+        <v>2.672638463037899</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>43.32384872904663</v>
+        <v>42.64921277337419</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>51.43774327463456</v>
+        <v>51.14977932789209</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5.387674348438374</v>
+        <v>4.988371579900658</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>70.15450904098921</v>
+        <v>70.59744050929173</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>78.18974096142875</v>
+        <v>77.77645318478349</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>76.78466769243934</v>
+        <v>75.43312734561596</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>90.17716908797993</v>
+        <v>90.22023017060633</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>92.22242618624384</v>
+        <v>91.29337698288813</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>15.7091867973104</v>
+        <v>8.761153403166745</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>85.95107603612399</v>
+        <v>83.66890893471026</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>89.61561122270216</v>
+        <v>86.48968732810924</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.97813127915834</v>
+        <v>25.01785170641212</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>41.04942451682547</v>
+        <v>40.19538486010439</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>44.86807125230089</v>
+        <v>43.3105613645216</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8.764948181173406</v>
+        <v>8.388036384615276</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>45.4940766597821</v>
+        <v>44.08225467955264</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>48.92688253153036</v>
+        <v>48.17858003962361</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.76544709449221</v>
+        <v>9.395993798974708</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>66.24776335324401</v>
+        <v>65.93477160734676</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>62.15722007623835</v>
+        <v>61.02631402251985</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>57.23945008132218</v>
+        <v>57.22465854584695</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>69.78450349781713</v>
+        <v>68.73358463717194</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>66.66717345666363</v>
+        <v>66.78949781422654</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.57751115042517</v>
+        <v>23.69894823091685</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>60.09634366453705</v>
+        <v>57.1434343487801</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>65.57356704652784</v>
+        <v>61.81208360540955</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.99918195478763</v>
+        <v>23.98852629663673</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>46.88251290796153</v>
+        <v>44.72269993395159</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>48.96773596497449</v>
+        <v>46.90770549094592</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>7.648033203385591</v>
+        <v>7.688681992307053</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.46141639610403</v>
+        <v>41.38364157106586</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.55276175163763</v>
+        <v>46.90443043700292</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>9.225366556162506</v>
+        <v>8.867403660163788</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>66.48397422774357</v>
+        <v>65.03340937806398</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>72.81357800427324</v>
+        <v>72.62740180522228</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>60.3999544464058</v>
+        <v>59.0195111831959</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>71.21707530930556</v>
+        <v>69.71488733714492</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>70.1261296639222</v>
+        <v>70.30379145099948</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.02121177806227</v>
+        <v>26.20814491682975</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>72.15606608002598</v>
+        <v>69.70196325771323</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>72.86048126236034</v>
+        <v>71.47338357107986</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.65676585455445</v>
+        <v>29.44982423548133</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>52.07654108218422</v>
+        <v>50.80498071807763</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>54.23279174382279</v>
+        <v>53.12395332288945</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>7.67464894801213</v>
+        <v>8.134413811979311</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>52.26059725125584</v>
+        <v>51.17044267847297</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>53.84122404480379</v>
+        <v>53.82565865762281</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>9.54800277215088</v>
+        <v>8.96332814986318</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>78.84387207627253</v>
+        <v>77.58046444293352</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>79.0641084279606</v>
+        <v>78.62982492861553</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>83.44546364168056</v>
+        <v>82.26153435600467</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>90.16183221602969</v>
+        <v>88.74393114362778</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>93.96664825262482</v>
+        <v>93.72582301076044</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.15187128934608</v>
+        <v>32.0291743431495</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>90.20487538202447</v>
+        <v>87.71136478316734</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>91.50436450840061</v>
+        <v>89.0198786062</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>17.08790105115682</v>
+        <v>15.5661954348671</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.70059589152913</v>
+        <v>18.91566687695365</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>22.33816038064571</v>
+        <v>21.17296643726071</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.701860646041077</v>
+        <v>2.133968650545462</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.13734966259462</v>
+        <v>21.83620042138844</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.17613516679245</v>
+        <v>23.88015021283423</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>5.199746495359673</v>
+        <v>6.321510615068636</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>32.29507222062215</v>
+        <v>30.70700179200087</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>30.94735279869054</v>
+        <v>30.34935869549744</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.27122191636914</v>
+        <v>28.25528946229673</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.45013828854614</v>
+        <v>31.74745512746013</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>37.50660528613948</v>
+        <v>35.57355178149168</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>45.92724305148828</v>
+        <v>53.80281304205383</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>59.37792542502146</v>
+        <v>59.73033213405125</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>63.53178663471605</v>
+        <v>65.72316129203915</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.06931128310274</v>
+        <v>13.8418763457801</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>37.93815337005683</v>
+        <v>35.21168434383798</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.43878139363864</v>
+        <v>41.20634300316182</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>6.971106418821016</v>
+        <v>5.592263599664747</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.41164644528092</v>
+        <v>31.21964501204028</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>47.8788855128322</v>
+        <v>47.18230493261626</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>9.239468002163409</v>
+        <v>10.43704610233895</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>46.89589253148552</v>
+        <v>47.09841414236374</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>66.75266465134834</v>
+        <v>66.56201683281967</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>39.65782928263439</v>
+        <v>40.43379282931339</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>51.3056832611058</v>
+        <v>50.91807064734624</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>65.29031912985502</v>
+        <v>64.15736538921979</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>23.99221820156838</v>
+        <v>18.74292691756785</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>64.77570946844327</v>
+        <v>61.9993299001949</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>72.20188144862787</v>
+        <v>70.02065292135057</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.36789682673073</v>
+        <v>26.4083863474295</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>46.35533539968716</v>
+        <v>44.25611269896302</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>54.09908608993508</v>
+        <v>52.56218283521561</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>10.22713729157947</v>
+        <v>8.726476791579014</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>40.51018180495625</v>
+        <v>39.12805241053891</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>51.29938432664063</v>
+        <v>49.21120191803839</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>14.52014109332731</v>
+        <v>15.18477632402752</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>61.13908031024548</v>
+        <v>62.98354577882834</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>76.15594410797578</v>
+        <v>76.31056467204209</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.09960756593533</v>
+        <v>63.03906710022443</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>77.55753883799667</v>
+        <v>74.86167566975487</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>90.26005836651623</v>
+        <v>89.74274625220789</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>39.57390724780984</v>
+        <v>35.52998865019348</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>81.2356458678583</v>
+        <v>79.09487709736891</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>88.13600449422299</v>
+        <v>87.14971961104995</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>23.89018828026725</v>
+        <v>23.32885740503848</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43.88701189089737</v>
+        <v>42.20917827221882</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>42.63924543844558</v>
+        <v>41.20109456660789</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.165096794918753</v>
+        <v>8.192722585223521</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>48.1300306424736</v>
+        <v>47.28639363390621</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>50.12152270960544</v>
+        <v>50.51426669899473</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.14787131596987</v>
+        <v>11.35371369900153</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>69.70696085445562</v>
+        <v>72.15822899535286</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>64.70880496907131</v>
+        <v>66.18384166785611</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>57.25356938721634</v>
+        <v>58.34574317707754</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>66.29395860182527</v>
+        <v>71.16038734124267</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>65.15177429667233</v>
+        <v>70.90525701387176</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.38608931381354</v>
+        <v>21.9687114366732</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>34.83389678443591</v>
+        <v>21.95352607697541</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>40.06944622962043</v>
+        <v>27.65635894446136</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>32.21418161216466</v>
+        <v>30.66395737420851</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>56.99149753553122</v>
+        <v>54.30899558894293</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>53.93467473944629</v>
+        <v>52.81026123841604</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>8.708724681107078</v>
+        <v>8.47775229977578</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>47.06164047402481</v>
+        <v>46.11701859698636</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>52.12376243623006</v>
+        <v>53.29304075668492</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>11.87582133324731</v>
+        <v>11.58699779289705</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>72.56363924571141</v>
+        <v>71.86891228271196</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>76.90014290323296</v>
+        <v>76.75362699510529</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>69.4482099494266</v>
+        <v>69.6466405916222</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>77.16178270988411</v>
+        <v>76.57999967109347</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>78.50404172258519</v>
+        <v>79.23033161620782</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>43.10007349380584</v>
+        <v>40.93745011041064</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>80.8942460961342</v>
+        <v>78.0347950739224</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>80.02341481042225</v>
+        <v>78.53635274610133</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35.12357334548651</v>
+        <v>35.41083530924587</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>56.12843376326976</v>
+        <v>54.59688610732484</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>56.5912128468769</v>
+        <v>55.38447858788791</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>9.199625543975255</v>
+        <v>8.966605233568075</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>49.28457128478458</v>
+        <v>47.75717201403507</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>52.54831211229492</v>
+        <v>52.06918273946123</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>12.20532229958667</v>
+        <v>12.4126625536985</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>76.87886606274981</v>
+        <v>77.19642677410218</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>80.46861306898822</v>
+        <v>80.56817032422121</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>84.50768927526993</v>
+        <v>84.0073211819421</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>91.06368648166037</v>
+        <v>89.50451902065105</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>93.87408253119366</v>
+        <v>93.34991344423301</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>47.66312758825387</v>
+        <v>46.2649104837307</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>89.61758216173214</v>
+        <v>88.303757087995</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>87.5219437468082</v>
+        <v>86.07904158298024</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>17.73219015433144</v>
+        <v>17.11246406133364</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>35.22471191104975</v>
+        <v>33.42465407726773</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>39.16848987189097</v>
+        <v>37.96489125574158</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>7.596283979120827</v>
+        <v>6.524924767465265</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>46.23076976093871</v>
+        <v>44.09940085695391</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>48.65276427264558</v>
+        <v>47.41076410699893</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.41607255504407</v>
+        <v>9.10841875012348</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>70.19565924470038</v>
+        <v>70.50756705141356</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>66.40676924427146</v>
+        <v>66.55650920596511</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>59.65865092523738</v>
+        <v>61.67402925181763</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>67.90282594777439</v>
+        <v>70.04458830548839</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>69.17093441929944</v>
+        <v>72.78795349103865</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>16.676351355862</v>
+        <v>14.43931465335203</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.73490349342162</v>
+        <v>10.57910596896563</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>19.99861142085688</v>
+        <v>14.19705806284652</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>27.08595819417861</v>
+        <v>24.50336512985206</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>53.74419101922552</v>
+        <v>49.73477936090568</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>53.81924249921127</v>
+        <v>50.706365680207</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>7.361184272824328</v>
+        <v>7.371137085372851</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>47.31270849583997</v>
+        <v>45.94311409340663</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>51.57534000510798</v>
+        <v>51.20756319172823</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>8.844644476118539</v>
+        <v>8.707738149098578</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>73.60992822219644</v>
+        <v>71.87539840694308</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>75.96648056513132</v>
+        <v>74.89119748864454</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>61.53215976028328</v>
+        <v>59.89660244025828</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>73.59932759837113</v>
+        <v>71.96192629363244</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>76.46316324994322</v>
+        <v>76.32193468619528</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.79587225130555</v>
+        <v>24.2715422917339</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>78.93765254489688</v>
+        <v>78.4004554927003</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>80.08878921544013</v>
+        <v>79.32139305638555</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.03246824545326</v>
+        <v>25.38038102745121</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>52.42773902794397</v>
+        <v>48.92397793569837</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>55.61847117458679</v>
+        <v>52.64517381931014</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>4.83055301974969</v>
+        <v>6.623314540701024</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>48.80297520756226</v>
+        <v>47.91994593077696</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>51.29448221510982</v>
+        <v>50.78808646182763</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>9.519458111049779</v>
+        <v>9.228846649682772</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>78.47571625181627</v>
+        <v>77.03864553150999</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>80.15237367348064</v>
+        <v>78.93284556387022</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>79.38891240878215</v>
+        <v>78.17963445198387</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>91.41766418880448</v>
+        <v>89.86280991612463</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>92.77268133068594</v>
+        <v>92.5870848196314</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.50764874856642</v>
+        <v>24.72687630071576</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>88.46160333873512</v>
+        <v>85.13697612425329</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>87.39000580079224</v>
+        <v>85.08657421901067</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>10.05521855754906</v>
+        <v>7.2165245161301</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>8.369628419189226</v>
+        <v>6.715278145985685</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>12.58351119075081</v>
+        <v>11.17723815194291</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-0.411461932318069</v>
+        <v>-0.6487243930253399</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>13.49977761482594</v>
+        <v>13.35814027504045</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.73515006328085</v>
+        <v>17.63091504898918</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>0.3370289454125626</v>
+        <v>0.1437015471902896</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.28217694171163</v>
+        <v>21.29055814224526</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.14474296986824</v>
+        <v>22.18936379890959</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.38878395381882</v>
+        <v>24.99468347036879</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>30.90159585276131</v>
+        <v>30.73096166272849</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>32.1473214568094</v>
+        <v>33.18779458906527</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>10.58350184939231</v>
+        <v>8.834089336513919</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>17.89045481731533</v>
+        <v>16.89969240133226</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.08502228730195</v>
+        <v>18.15434555852885</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>15.48431386038386</v>
+        <v>13.34528016684417</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>30.1269666328485</v>
+        <v>27.89357568049451</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.85007805670544</v>
+        <v>33.76363705053023</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>6.367754245090577</v>
+        <v>5.922121328235946</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>27.88103003245079</v>
+        <v>26.59599756611737</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>38.10823332513185</v>
+        <v>37.4707905297044</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.215494010589474</v>
+        <v>7.010156705253802</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>43.77032754244505</v>
+        <v>41.64139986971541</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>56.76840742280181</v>
+        <v>55.65709708770639</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>40.93881354938756</v>
+        <v>39.6209850994449</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.14156279776188</v>
+        <v>49.92373602159986</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>53.02273695437613</v>
+        <v>53.00521349355105</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>16.47110650152904</v>
+        <v>14.80991146200077</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>53.17287015179896</v>
+        <v>51.18003530852111</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>55.58894744661237</v>
+        <v>54.69077362727254</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>19.61923232437219</v>
+        <v>17.26067103736311</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>39.90537113313579</v>
+        <v>37.44373075401837</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>45.37524424547618</v>
+        <v>43.55242877191727</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>8.39531061846321</v>
+        <v>8.034629440186386</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>41.63116413704192</v>
+        <v>40.43405849616728</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>48.9883512149926</v>
+        <v>48.3924148440457</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>11.01838812330551</v>
+        <v>10.51833598359896</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>65.70585253405849</v>
+        <v>64.56483505821376</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>70.82310877033578</v>
+        <v>69.85847476045217</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>70.63294350544575</v>
+        <v>69.52164678665102</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>80.05528298445111</v>
+        <v>78.6129678669304</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>80.69235291551996</v>
+        <v>80.62491867305815</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>30.81290524345957</v>
+        <v>28.48915637667323</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>80.41416789591482</v>
+        <v>77.85060575739456</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>85.1103481447166</v>
+        <v>83.88747878729008</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>10.01738920163542</v>
+        <v>7.954422228440695</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>10.60020359371551</v>
+        <v>9.095318380729989</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>12.41156314194307</v>
+        <v>10.43160333767553</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-1.326273734260297</v>
+        <v>-1.324567031859537</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>12.66787942522135</v>
+        <v>12.12842853660486</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>15.13764504152806</v>
+        <v>14.73659528779271</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-2.06656810501228</v>
+        <v>-0.1375967893315746</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.49769537335906</v>
+        <v>15.82555243178823</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.77258282509877</v>
+        <v>13.83414991732712</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>11.9399140721495</v>
+        <v>13.23019570511913</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>16.3605577971338</v>
+        <v>15.74889024530358</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>17.41101304009674</v>
+        <v>14.72800968123037</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>10.76837582124091</v>
+        <v>9.658008208859776</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>15.20912918947251</v>
+        <v>13.35470750601607</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>17.26705197373393</v>
+        <v>15.66118603578067</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>5.934823082758307</v>
+        <v>3.191861265505459</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>10.61678307183113</v>
+        <v>9.299071353943006</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>14.99548123212828</v>
+        <v>14.68878131862197</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-1.953918334214343</v>
+        <v>-2.149370572613122</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>6.094942420764493</v>
+        <v>5.796627230030779</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.06725030687051</v>
+        <v>14.65624457992859</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2.692978953585005</v>
+        <v>-0.8887381791135809</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>15.15007709407477</v>
+        <v>13.40228931564313</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>32.51822731809558</v>
+        <v>31.08732058366017</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.52154991413818</v>
+        <v>10.75322261335506</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.27920689399058</v>
+        <v>20.22295592850432</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>31.06344437608151</v>
+        <v>31.94422491404728</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>4.591077022524907</v>
+        <v>1.520396913406692</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>21.73332251791043</v>
+        <v>20.099175849539</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.19238907345227</v>
+        <v>16.9899103732527</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>11.00773194058583</v>
+        <v>5.494300309173795</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>16.28825028242571</v>
+        <v>14.08631017593034</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.83499402355804</v>
+        <v>32.46867070946594</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>0.08894768291589017</v>
+        <v>-0.02366961865941164</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.58132318183238</v>
+        <v>14.78753553948656</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.17112894468288</v>
+        <v>33.70061158904747</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.2558050530447318</v>
+        <v>0.7511433438556523</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.70618896835271</v>
+        <v>24.7577394510039</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.12009223610003</v>
+        <v>60.14949933923045</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.05396612715538</v>
+        <v>26.69260364166757</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>50.15091303960986</v>
+        <v>48.55903542165726</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>69.36894338985115</v>
+        <v>70.71823816645858</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>8.217013196430962</v>
+        <v>4.856027440641178</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.38674016035616</v>
+        <v>33.1278612512893</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>43.98007494762754</v>
+        <v>42.28824893554</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>13.78672286525575</v>
+        <v>12.1893239897584</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.30092420755498</v>
+        <v>23.32049978913379</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>37.47794110839665</v>
+        <v>36.13586400558172</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>5.443822929684998</v>
+        <v>7.321723850093001</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>45.82145161687755</v>
+        <v>43.71830508319916</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>51.32421677498392</v>
+        <v>50.30668835795035</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.930823452265692</v>
+        <v>7.735781798616991</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>65.48417789017657</v>
+        <v>63.16135230876547</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>67.31008087842639</v>
+        <v>65.38281992263964</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>62.65043021260404</v>
+        <v>63.20747627435417</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>72.63491229879723</v>
+        <v>71.56431545000542</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>70.6866034412584</v>
+        <v>71.75675449301885</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>23.82116525371994</v>
+        <v>24.26322226655596</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>51.32476478270443</v>
+        <v>50.50710167188755</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>70.76670798171573</v>
+        <v>69.78689158669151</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>19.53065035482009</v>
+        <v>17.7044855228632</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.37439406923333</v>
+        <v>34.03642318682991</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>38.73615853414315</v>
+        <v>37.55200461644446</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>1.730878129006648</v>
+        <v>4.127122966690639</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.23701169825453</v>
+        <v>34.61320245145679</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.85523622550728</v>
+        <v>38.37802437889849</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.403398626185453</v>
+        <v>4.62023039468415</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>55.39598552098602</v>
+        <v>54.02478709209994</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>61.16929385479104</v>
+        <v>61.08362871162536</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>48.96141046025882</v>
+        <v>48.46414302314652</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>57.20277174320288</v>
+        <v>56.15769132016467</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>56.11278464354395</v>
+        <v>57.23774867731196</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.5764434050289</v>
+        <v>26.10842110436097</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>63.50360785434911</v>
+        <v>62.06668645773753</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>63.641651508999</v>
+        <v>62.83630766100572</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.5726058719444</v>
+        <v>20.26568060128865</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.21999430208028</v>
+        <v>37.91165361390535</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>45.40489079991323</v>
+        <v>44.92012465981224</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>6.228414803608715</v>
+        <v>8.082979764119145</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>47.03556531670679</v>
+        <v>46.41240640622743</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>48.51814239874064</v>
+        <v>49.43957244372445</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>8.029350843261955</v>
+        <v>9.61968720015701</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>70.6389209959211</v>
+        <v>70.5549372690347</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>74.06182616891481</v>
+        <v>74.31898747392488</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>74.27421177625028</v>
+        <v>73.49231301960435</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>80.53990518011551</v>
+        <v>79.72444814269939</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>83.24062998985777</v>
+        <v>84.52808016201139</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.41336069773453</v>
+        <v>31.24264294237244</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>80.9050576889356</v>
+        <v>78.8668435602609</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>86.65208248878538</v>
+        <v>85.42613681285027</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.685834188506796</v>
+        <v>8.153074962210013</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.05333758617466</v>
+        <v>10.12745179077973</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>15.85070496150027</v>
+        <v>14.64526044214734</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>0.1658664441858946</v>
+        <v>-0.4958045816487413</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>9.163368189296506</v>
+        <v>8.763952646761958</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>15.48321469091281</v>
+        <v>16.04226725023914</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>0.412534160944567</v>
+        <v>-0.1227095799046225</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.54110570637956</v>
+        <v>17.63836694835391</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.87092033024517</v>
+        <v>20.15664039990143</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>18.87684430214791</v>
+        <v>18.12331739618265</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>23.01675874495552</v>
+        <v>23.32438224411485</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.00565685387411</v>
+        <v>24.16766176337564</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>11.08029842687138</v>
+        <v>8.416280949516548</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>18.21606334595891</v>
+        <v>15.58433539358654</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>22.17834481887059</v>
+        <v>20.01747050770432</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>9.470382244516937</v>
+        <v>6.822285144413865</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.90935686391428</v>
+        <v>19.98361382227819</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.23032097250363</v>
+        <v>29.12061315828347</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>4.150271638130064</v>
+        <v>3.171700653679402</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.33996148290849</v>
+        <v>16.67334436973244</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.55635197993161</v>
+        <v>32.19716917204975</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>4.899908986328839</v>
+        <v>3.725322350887172</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.90643699548352</v>
+        <v>28.01212167251098</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>50.03518468992027</v>
+        <v>48.67411213115832</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>23.20832693789518</v>
+        <v>20.65288946470984</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.4731301989217</v>
+        <v>33.83181810891232</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>40.51840945193611</v>
+        <v>38.64295717376777</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>8.395361992944519</v>
+        <v>5.700305179797528</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.13954866328045</v>
+        <v>33.10255929031895</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>45.03440331044455</v>
+        <v>43.47460483864269</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>17.4645716590444</v>
+        <v>15.05131622621214</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.90384889618531</v>
+        <v>29.55259963052442</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>44.49511178246944</v>
+        <v>42.71595718055453</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>6.445573580774639</v>
+        <v>6.331258018303842</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.95452739057924</v>
+        <v>27.6472139322443</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>43.90776172172051</v>
+        <v>43.2785909754886</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>11.5242544394043</v>
+        <v>11.03445660427392</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>46.00894235703608</v>
+        <v>43.94614329321128</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>64.7690546719231</v>
+        <v>63.54617539308992</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>48.13756946819051</v>
+        <v>45.82469749731393</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>56.12645426601424</v>
+        <v>55.58210096403977</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>77.21551808111009</v>
+        <v>77.16804854801228</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.32561882190196</v>
+        <v>23.69409004001117</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>57.32005691120864</v>
+        <v>55.78702458219345</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>71.94241861056426</v>
+        <v>68.72601810813879</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.726261769612606</v>
+        <v>3.840783818307294</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>5.595648609621172</v>
+        <v>4.065615082698532</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>9.121043193560865</v>
+        <v>8.123397618760702</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-2.884001603767111</v>
+        <v>-2.26531673089395</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>7.488915107382809</v>
+        <v>7.122335276060163</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>12.27925440062022</v>
+        <v>12.13552963793611</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-9.107358942037642</v>
+        <v>-3.083841355020354</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>16.43800040721496</v>
+        <v>13.2931634167814</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>14.4074421477489</v>
+        <v>13.45966093097991</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10.06612363073166</v>
+        <v>4.258092180432691</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.5599730296329</v>
+        <v>7.013271915211767</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.31295281402782</v>
+        <v>17.88521308982138</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>3.093042263076182</v>
+        <v>2.353263383720098</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.324223080673889</v>
+        <v>5.762390757801974</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>13.2795670345585</v>
+        <v>11.82299971356312</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>19.74211454017328</v>
+        <v>17.54220217894905</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>37.6684794910698</v>
+        <v>35.31697564955817</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>37.85648785056673</v>
+        <v>35.97798820777003</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>6.831225940414996</v>
+        <v>6.630985999594536</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.01944550274933</v>
+        <v>32.83485390179263</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>38.4372779305067</v>
+        <v>38.32475360133954</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>7.53517527226558</v>
+        <v>8.266512448876703</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>55.8272481423619</v>
+        <v>53.24680762156571</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>57.78308501733865</v>
+        <v>56.07090540076387</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>48.30816628345001</v>
+        <v>46.59605334787044</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>55.99643006362712</v>
+        <v>52.35167827352667</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>55.78184264184143</v>
+        <v>54.73084563339255</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>21.2914951815164</v>
+        <v>19.31330196658739</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>61.52155779541373</v>
+        <v>58.50818923880271</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>61.57813462940307</v>
+        <v>59.65433374082407</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.12864818473429</v>
+        <v>22.33487647204459</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>44.52121571662697</v>
+        <v>43.27386519543614</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>47.45328223337249</v>
+        <v>46.1320943060847</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>7.877210918055329</v>
+        <v>7.801856088825097</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>47.07791259952116</v>
+        <v>46.30325919999913</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>52.12134505379733</v>
+        <v>51.93041755967267</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>8.590423704980182</v>
+        <v>8.669107062601434</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>71.2565993584418</v>
+        <v>70.57825976457873</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>70.58085460088844</v>
+        <v>69.47465784207154</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>76.65946957979642</v>
+        <v>76.47924221396518</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>84.95013459851918</v>
+        <v>84.64966017318746</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>84.89070563521423</v>
+        <v>84.72123172707393</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.02203235936818</v>
+        <v>23.94418607457106</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>85.19404417070081</v>
+        <v>82.67898072092849</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>83.46593778096488</v>
+        <v>81.84104343866065</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.99746739083243</v>
+        <v>11.24973776924183</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>13.57001202244786</v>
+        <v>12.71849991242363</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.65985194577046</v>
+        <v>17.9207823537387</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-0.6404011019914293</v>
+        <v>-0.4733610550089864</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>12.78081810142946</v>
+        <v>12.8215764730468</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.05801166234576</v>
+        <v>18.44619041418304</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1.0765116516679</v>
+        <v>1.02422682221686</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.85038688538735</v>
+        <v>21.52122556930164</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.92303159532617</v>
+        <v>26.506559063324</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>19.49890934403104</v>
+        <v>20.81625526860948</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.56879677655358</v>
+        <v>25.95200056409386</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.28731741700108</v>
+        <v>29.07618612138991</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>13.5226241387064</v>
+        <v>12.14724866214375</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>23.06288511562346</v>
+        <v>20.88778741184966</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.90881210148509</v>
+        <v>26.14987929435257</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>6.996325959514721</v>
+        <v>5.411029569602082</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>11.93061629432098</v>
+        <v>12.09074348527115</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>19.30296717890661</v>
+        <v>19.14369000336891</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-1.371384123810742</v>
+        <v>-1.678302855336781</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>8.233779792585356</v>
+        <v>7.944438319126668</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>20.12705532463097</v>
+        <v>20.09502515292456</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-1.174944889688437</v>
+        <v>-1.406758680659138</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>17.39916454150253</v>
+        <v>15.68147696274573</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.67164634680286</v>
+        <v>34.46106295662613</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>11.73435231153315</v>
+        <v>11.28281690114774</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>21.48510141874948</v>
+        <v>20.78663476360794</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.07958993069262</v>
+        <v>30.00547774631399</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>4.7968439819367</v>
+        <v>3.37683891862854</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.97447145798347</v>
+        <v>21.75205037946219</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.54812178279272</v>
+        <v>29.38193892513694</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>20.5518778053001</v>
+        <v>19.15220857918384</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.37554174726994</v>
+        <v>29.46153746480203</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.44842152784393</v>
+        <v>36.02609860817125</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>2.026726907370143</v>
+        <v>1.966566159102726</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.02059094409805</v>
+        <v>24.57636066824431</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>31.60119161426509</v>
+        <v>31.60128692144492</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>7.736298727507659</v>
+        <v>7.604349709211451</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>44.62271590315051</v>
+        <v>43.92229936486876</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>54.04694652495257</v>
+        <v>54.33145782722345</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>48.53994458091022</v>
+        <v>47.61456277881115</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.54199095590808</v>
+        <v>53.7137190608282</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>65.20013031785723</v>
+        <v>65.34361204981066</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.70173305080346</v>
+        <v>22.37324363583729</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.53779220800721</v>
+        <v>50.24124335410551</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>54.10763747083836</v>
+        <v>53.49482610641489</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.221234027006375</v>
+        <v>5.368716801149198</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>4.596999323078844</v>
+        <v>4.284604010432599</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.165392366052615</v>
+        <v>6.031578467431203</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2.927573532410669</v>
+        <v>-2.33725056294665</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>2.907888711950562</v>
+        <v>3.768295711528825</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>4.392850665701214</v>
+        <v>6.660342658474381</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.1140853782722218</v>
+        <v>0.8433295305479902</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>8.318134128072195</v>
+        <v>7.773208929523065</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>4.975074637333471</v>
+        <v>7.023895413113877</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>3.898859178285726</v>
+        <v>5.553003618617993</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.670355125456226</v>
+        <v>5.451197077823885</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>4.442021288381014</v>
+        <v>6.699540375066753</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>7.146600923409927</v>
+        <v>6.170038771668739</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>8.546058125139673</v>
+        <v>7.104178386026007</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>10.29773202916215</v>
+        <v>10.52173803820778</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>3.810491957712657</v>
+        <v>2.201641481540598</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>5.322217480206902</v>
+        <v>5.498995780704277</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>4.706958510811042</v>
+        <v>6.247005939734457</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2.234029429354997</v>
+        <v>-1.920956661268889</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>1.608037387468055</v>
+        <v>1.400851125342591</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>6.484795326054829</v>
+        <v>7.486860053201919</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-2.735567121538075</v>
+        <v>-2.071351515037605</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>6.049073810970949</v>
+        <v>5.528248421062401</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>10.69610261454156</v>
+        <v>10.29604741996498</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>4.304300531841744</v>
+        <v>3.902162641200128</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>7.197877220760706</v>
+        <v>6.466659073500672</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.54906980397552</v>
+        <v>4.581059817999808</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>1.174069501738998</v>
+        <v>-0.7366694436571493</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>8.381971460188321</v>
+        <v>7.405086200290945</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.29699067225929</v>
+        <v>9.860482619414299</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.95111077626981</v>
+        <v>18.76063763728869</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>23.8953040160657</v>
+        <v>22.97178161862603</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.71128572418368</v>
+        <v>27.454607121651</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>2.515109414945169</v>
+        <v>2.377809159031173</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>17.54052009246008</v>
+        <v>17.36737948741204</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.45489648140946</v>
+        <v>23.05219224284417</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>8.456917171350405</v>
+        <v>8.692613403563996</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>30.38271958941151</v>
+        <v>30.18822592682898</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>35.3690807350586</v>
+        <v>35.60068361065392</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>37.69492696753554</v>
+        <v>37.54794255734274</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>42.43217021221889</v>
+        <v>41.99573664898787</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>42.69355547838025</v>
+        <v>42.21630482082004</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.51209181203667</v>
+        <v>21.8585176340424</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>35.015877055451</v>
+        <v>32.92433940054218</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>39.841538541562</v>
+        <v>39.02361994162486</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>18.4364746946436</v>
+        <v>17.19041595447841</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.26813572026347</v>
+        <v>23.25311566804987</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>32.15630126848417</v>
+        <v>31.23919031471118</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>0.3137887824804331</v>
+        <v>2.017680404096755</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.20398337977168</v>
+        <v>23.19837489582292</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.85673621368018</v>
+        <v>29.40394474777395</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>4.001685531736513</v>
+        <v>5.890520119999355</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.38416106049701</v>
+        <v>39.01545638263265</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.67589443660667</v>
+        <v>44.13881992572047</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.96310733643901</v>
+        <v>38.44970302585395</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>46.58424575830453</v>
+        <v>47.52420598688275</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>48.03171051287684</v>
+        <v>50.51553271307475</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>32.79720636992067</v>
+        <v>32.23449296463074</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>50.47317833336002</v>
+        <v>50.46737123204801</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>62.83119887097043</v>
+        <v>62.44775864440032</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.53215483688531</v>
+        <v>11.71746229087707</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.2976934009512</v>
+        <v>23.46612920764271</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.03252286971108</v>
+        <v>26.28020684350668</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-2.927571685603887</v>
+        <v>-2.254799670180205</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>14.50883019109654</v>
+        <v>14.90231636681154</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>21.32672174518007</v>
+        <v>22.39430224812764</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-0.9213662305380339</v>
+        <v>0.8456481345532225</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.9197996913411</v>
+        <v>31.17663685155928</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>41.04058626233679</v>
+        <v>39.13332368508971</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.1050189057361</v>
+        <v>30.80227818349798</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>38.53015803488029</v>
+        <v>38.69391508878196</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>39.24119920051281</v>
+        <v>40.81304959966755</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.25806322368715</v>
+        <v>17.48561373055042</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>44.42994566672547</v>
+        <v>43.50244805487888</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>48.82680250904386</v>
+        <v>48.27429713570032</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.59619150054527</v>
+        <v>21.80872416387729</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.66537642190858</v>
+        <v>36.56773926890506</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.80068334398531</v>
+        <v>42.75820901018261</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>4.941960090031795</v>
+        <v>5.04343598542297</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>32.15836609723168</v>
+        <v>32.13169439942664</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>37.9696860705745</v>
+        <v>38.07856973465115</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>7.244624836351271</v>
+        <v>8.860796978258364</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>55.20106667201578</v>
+        <v>57.02988262532931</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>61.14397240008974</v>
+        <v>62.14785352009635</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>65.32764421594925</v>
+        <v>65.81731782684068</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>71.40249871364801</v>
+        <v>71.28777669291432</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>77.76810605234641</v>
+        <v>79.16995841422873</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>34.63541495640945</v>
+        <v>31.9103871386976</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>68.65427572187694</v>
+        <v>66.31546005486246</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>73.6226436253593</v>
+        <v>73.57165839635263</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.59931564429242</v>
+        <v>18.68388046258552</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>38.63242748354912</v>
+        <v>36.67279345180324</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>43.31997070449687</v>
+        <v>41.33975052876107</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>9.675875187227433</v>
+        <v>9.259813625480703</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>41.69519091873617</v>
+        <v>40.2438816399116</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>46.68230734887125</v>
+        <v>45.40630696240179</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.01205916751657</v>
+        <v>11.25538594851907</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>60.20706642692586</v>
+        <v>58.16262360614221</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>61.67536599225962</v>
+        <v>60.46318724318657</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>65.24639715459639</v>
+        <v>67.2912509929037</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>71.96984406446336</v>
+        <v>70.94382585366222</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>71.00023121478546</v>
+        <v>70.09336577148117</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>23.6777007819614</v>
+        <v>21.6910630458117</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>63.3900564152927</v>
+        <v>61.03616230156101</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>69.06257829616155</v>
+        <v>66.46470096483894</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>16.4439788404286</v>
+        <v>14.49414243939321</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.12734809729709</v>
+        <v>33.26692094876341</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.13219148851978</v>
+        <v>38.06119293368244</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>4.455661110354423</v>
+        <v>5.195423710441901</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.30653763915548</v>
+        <v>28.45448948044585</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>37.76197035611445</v>
+        <v>37.58583085826953</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.132655763606479</v>
+        <v>5.961412967208311</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.34373959690583</v>
+        <v>46.20785558987493</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>60.68948100779691</v>
+        <v>59.77768561789702</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>47.1304409030387</v>
+        <v>45.46698149444443</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>56.069537607374</v>
+        <v>54.23324881467953</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>56.80314173281884</v>
+        <v>55.58070510345915</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.0855506367063</v>
+        <v>14.08728511846883</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>58.2955579646292</v>
+        <v>56.12982745097151</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>64.4776259081096</v>
+        <v>62.59231122420697</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>17.54054816633106</v>
+        <v>15.98022084313333</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.45735834507472</v>
+        <v>38.73202407463332</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>46.68858847499276</v>
+        <v>45.21237560666235</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>2.441267787905129</v>
+        <v>3.091236121424281</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.60057463660144</v>
+        <v>37.72075871966405</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>46.44675632759416</v>
+        <v>45.83782695188431</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>5.573859008803836</v>
+        <v>4.890201807927834</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>59.8957171789419</v>
+        <v>59.25194656317258</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>69.15731997081261</v>
+        <v>68.55840166168286</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>68.16258081891783</v>
+        <v>66.53203412942733</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>78.5196592813971</v>
+        <v>77.51985048086769</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>84.62185957078528</v>
+        <v>84.10713117370506</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>16.91570339729597</v>
+        <v>14.92545793769179</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>73.94891693459337</v>
+        <v>72.1710604426781</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>81.03751282866511</v>
+        <v>79.05005248943341</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>20.11694631864779</v>
+        <v>20.19516284897088</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>31.02007865616734</v>
+        <v>29.4633772166469</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.54151282736709</v>
+        <v>35.88851477470038</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>7.366810841177937</v>
+        <v>7.416771731405028</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.91284339254312</v>
+        <v>41.12240590386961</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>46.24887432568747</v>
+        <v>45.77722933350905</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.453931239055152</v>
+        <v>10.1729701297741</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>58.84204844136436</v>
+        <v>57.44981234896498</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>58.35346670908166</v>
+        <v>58.67417222888376</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>56.09627781679777</v>
+        <v>60.90629744634735</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>62.98803340392612</v>
+        <v>64.22070524754955</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>60.67639620637589</v>
+        <v>64.41788878982638</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.25344845826155</v>
+        <v>23.72019777221715</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>46.54444951059909</v>
+        <v>42.62295140442223</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>62.91090306531502</v>
+        <v>61.55967642859369</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>20.7986175362796</v>
+        <v>21.63892516403669</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.20071145878745</v>
+        <v>38.28404321590506</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>40.56259048928256</v>
+        <v>39.64112431737521</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>3.567628163274097</v>
+        <v>4.325059247846273</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.38314881428099</v>
+        <v>33.54897929760097</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.57638456996345</v>
+        <v>39.40357447404914</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>2.962106970418457</v>
+        <v>4.01375027013998</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>54.17111594729424</v>
+        <v>52.53417069321726</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>62.77046755793743</v>
+        <v>61.89973816382734</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>50.21947002718191</v>
+        <v>50.95129688851129</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>59.37539677978705</v>
+        <v>57.36088555874943</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>59.5938980782395</v>
+        <v>59.72424534885116</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.14918295354408</v>
+        <v>20.13311969897555</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>63.8569161895308</v>
+        <v>61.54957421201716</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>67.87235642115041</v>
+        <v>66.24750970493966</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.57802214815811</v>
+        <v>23.68203465336074</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.81479978139858</v>
+        <v>41.67105548438994</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>47.76577479080456</v>
+        <v>46.55007482410972</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.782375864294302</v>
+        <v>6.206243210800956</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.07070786482652</v>
+        <v>42.41446866541376</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>48.30584379468099</v>
+        <v>47.95535911513257</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>4.475990945121957</v>
+        <v>5.442149155678688</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>65.7102766530663</v>
+        <v>66.32645242090592</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>72.04522211397283</v>
+        <v>72.14578176238942</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>75.61257246395456</v>
+        <v>76.02528296717173</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>82.62672760767583</v>
+        <v>81.27644142095869</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>84.6616299016338</v>
+        <v>84.64648634791902</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.35660884487204</v>
+        <v>23.04946293041203</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>76.81840470471974</v>
+        <v>73.75257084827194</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>81.05584379378678</v>
+        <v>79.78360820964974</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.39234482966248</v>
+        <v>21.39497623911826</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.53866306533676</v>
+        <v>29.7551375805614</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.60312501686547</v>
+        <v>33.57690359102856</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.24306392934215</v>
+        <v>14.27432858666448</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>56.44125964836748</v>
+        <v>57.20883315580679</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>55.18217127691059</v>
+        <v>57.30275355551608</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>10.04823275264662</v>
+        <v>11.19609464680489</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>60.27939054704372</v>
+        <v>61.2390029235905</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>56.74471544696567</v>
+        <v>58.06985522319104</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>56.71427348784094</v>
+        <v>62.62361061406541</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>62.97914401480904</v>
+        <v>64.60607054019533</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>61.99232356427106</v>
+        <v>64.52003011934787</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>32.68057148373748</v>
+        <v>30.98459285191176</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>51.96247278501625</v>
+        <v>46.81327113511335</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>64.30660745738433</v>
+        <v>61.8046680049242</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.27294322119598</v>
+        <v>25.07996884968175</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>40.05083192810091</v>
+        <v>38.20351309879966</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.60666891694366</v>
+        <v>39.44968381160356</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.85189225008587</v>
+        <v>34.59057019413167</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>52.01212399496813</v>
+        <v>52.10799461515093</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>57.1659822795983</v>
+        <v>58.59887878385694</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>8.838147861093077</v>
+        <v>10.22800201696083</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>54.52108566545307</v>
+        <v>54.95212266361001</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>61.84205515720984</v>
+        <v>62.84911491074824</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>49.16667360587382</v>
+        <v>49.04522636729262</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>57.48879591887565</v>
+        <v>56.62171579476588</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>57.75535738330948</v>
+        <v>57.20486005825561</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>31.38116025649843</v>
+        <v>30.05071862273028</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>62.05597589759699</v>
+        <v>60.87744601834424</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>66.50018534534524</v>
+        <v>66.04297953263705</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.3793317161571</v>
+        <v>28.85279108498786</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.25649036333903</v>
+        <v>43.20700045050734</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.80806109178512</v>
+        <v>45.90608632644405</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>32.51116065512075</v>
+        <v>37.47494964287019</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>59.54070770794701</v>
+        <v>60.04778919464479</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>61.9264891754623</v>
+        <v>62.3763437224269</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>10.57974140088647</v>
+        <v>10.84687599895884</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>65.95435494659235</v>
+        <v>68.85118227090341</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>70.46165307890625</v>
+        <v>71.48155377924731</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>80.1700739171125</v>
+        <v>80.09903796181278</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>82.94353416059428</v>
+        <v>81.18431319518442</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>86.63605608972858</v>
+        <v>86.87005735903448</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.74577072766217</v>
+        <v>36.50418638987093</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>76.48914177810096</v>
+        <v>76.64640420683142</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>83.36956981330755</v>
+        <v>83.36309771743763</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>13.15281914092213</v>
+        <v>13.44239111342178</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>30.86529698031055</v>
+        <v>30.06338246680929</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.0791746779757</v>
+        <v>36.4225861053437</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>3.093812034777045</v>
+        <v>3.819508080089626</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.6652602208944</v>
+        <v>30.97569174555288</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>41.23576466252149</v>
+        <v>41.34171266385511</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>3.640285836252563</v>
+        <v>4.176144079823857</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>53.79702859936743</v>
+        <v>53.34079896250216</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>57.22673426927274</v>
+        <v>57.9498368701297</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>59.65858616762957</v>
+        <v>59.37269262827176</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>63.98113015674308</v>
+        <v>62.98652549409616</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>65.13471891215073</v>
+        <v>66.15407529623603</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>12.44097138356912</v>
+        <v>10.16763774193275</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>53.63492511978087</v>
+        <v>52.95891700967103</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>61.27891911106246</v>
+        <v>61.28855025014347</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>13.38158597573402</v>
+        <v>11.77667099655014</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>33.6572202467696</v>
+        <v>32.13667069361253</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>35.85503856263598</v>
+        <v>34.77900391697925</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>0.4171296032415874</v>
+        <v>0.8432138423520144</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.59079180018078</v>
+        <v>27.8695854439975</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.36166802837968</v>
+        <v>33.66847849132019</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>0.3397619525227569</v>
+        <v>0.9143455025957259</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>45.78909527614213</v>
+        <v>44.66553241573975</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>56.12090927490561</v>
+        <v>55.93741587033411</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>44.29817911877346</v>
+        <v>42.58205431591384</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>52.89136236573402</v>
+        <v>50.93883407961492</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>52.14857783449285</v>
+        <v>52.55872275773175</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>6.970976533926411</v>
+        <v>5.065480430129508</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>50.78230397883838</v>
+        <v>48.54560474101411</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>58.54563389670756</v>
+        <v>57.48019238362019</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>14.79646001068834</v>
+        <v>13.0374494192924</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>34.94028117494351</v>
+        <v>34.39247871671355</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>42.09324335848007</v>
+        <v>41.7269720499887</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>0.956274247858083</v>
+        <v>1.136565323041307</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.37450171211919</v>
+        <v>35.48957676748786</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.41740037758587</v>
+        <v>43.79574067299547</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1.806189551616249</v>
+        <v>2.043265976170208</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>54.40140260178149</v>
+        <v>54.61734151860641</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>65.0108812562689</v>
+        <v>66.04056065383182</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>65.36698476455962</v>
+        <v>64.24674933270839</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>75.27883359706689</v>
+        <v>74.41686308720674</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>82.60322766030649</v>
+        <v>83.15114634023226</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>10.79370568699639</v>
+        <v>7.655168736093568</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>68.8014965513884</v>
+        <v>67.75869347671522</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>79.25171819866213</v>
+        <v>78.43807554993113</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>16.01302736223789</v>
+        <v>14.35523265074409</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>16.49504649087002</v>
+        <v>14.859520326793</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>19.6556565463689</v>
+        <v>18.03919672393819</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.823919020380636</v>
+        <v>0.9318769027766933</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.47122833855026</v>
+        <v>18.02187017009346</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.27993396669194</v>
+        <v>21.89325433273821</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>7.897935964436208</v>
+        <v>7.695622928290774</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.62974728883715</v>
+        <v>28.59105619139281</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.56544164606052</v>
+        <v>30.22443208983612</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.8514936403211</v>
+        <v>25.61660302618854</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.82205403783452</v>
+        <v>29.55453243570282</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>32.71207727054053</v>
+        <v>32.24622497340677</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.10782675759473</v>
+        <v>17.43780722940484</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.21773256919493</v>
+        <v>22.75215721124482</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>30.56448381106906</v>
+        <v>28.34117674859764</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>15.75590116454373</v>
+        <v>12.94837854349963</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>31.82977024546144</v>
+        <v>28.43447425354517</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>37.44395790503511</v>
+        <v>34.58858703596537</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.98795739935818</v>
+        <v>5.557551137124854</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.35790918655816</v>
+        <v>26.81203909673332</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>40.28198262360537</v>
+        <v>38.93892476389338</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>7.433079187652833</v>
+        <v>6.395861336093631</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>42.11346281714499</v>
+        <v>40.06398401012354</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>58.27555931920183</v>
+        <v>56.70516279244425</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>41.74534509543246</v>
+        <v>39.26493644199338</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>47.67181558794594</v>
+        <v>44.00537494517893</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>56.88189391584591</v>
+        <v>55.62546831706418</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>14.59043551821703</v>
+        <v>11.31924693341305</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.69735804038855</v>
+        <v>46.68293877587584</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>58.47647300961848</v>
+        <v>55.95108099257442</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>20.21840988884309</v>
+        <v>17.69111425226389</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.90654281333144</v>
+        <v>34.85387937717802</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>47.17204397362532</v>
+        <v>44.74957642900608</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>6.491478794573084</v>
+        <v>5.476929657745401</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.93766427820554</v>
+        <v>33.704393831419</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>48.91973436789412</v>
+        <v>47.67671164674392</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>10.1765383347995</v>
+        <v>9.742031764710163</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>55.50660555066152</v>
+        <v>54.08840606395692</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>70.61004843625139</v>
+        <v>69.48770376094546</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>60.60479374250168</v>
+        <v>57.27377646822069</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>63.30562425963655</v>
+        <v>60.6314309510213</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>80.16523872864792</v>
+        <v>79.88429959263868</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>22.94165225142748</v>
+        <v>19.23462321672138</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>62.27380764725917</v>
+        <v>58.44143840351997</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>77.49039136317624</v>
+        <v>75.6667629065669</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>13.23191457749088</v>
+        <v>14.01372957445426</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>21.3358006286035</v>
+        <v>18.21958668903586</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.90634437107331</v>
+        <v>23.08354626158788</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-1.830009346453025</v>
+        <v>-1.340459891948569</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.32145778772842</v>
+        <v>26.90611491171175</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.6640645317383</v>
+        <v>32.8565157404385</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>0.5740650276507182</v>
+        <v>3.172177720523621</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.59444188386881</v>
+        <v>38.84146491973565</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>41.07799832157548</v>
+        <v>41.26662007029712</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>33.9099645894737</v>
+        <v>35.09839344269665</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.98778449817801</v>
+        <v>41.67722497768081</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>46.20524237247091</v>
+        <v>48.49406785627369</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>17.64745850668805</v>
+        <v>17.25165437220584</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>37.89104787034678</v>
+        <v>34.46300036424535</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>51.61026945231774</v>
+        <v>49.57684836984015</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>10.69815023974557</v>
+        <v>8.538791214247823</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>23.57635949082761</v>
+        <v>21.57831340093443</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.90868012768325</v>
+        <v>31.37224918019387</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>4.075432739001304</v>
+        <v>4.972057031889371</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>22.01314352887272</v>
+        <v>20.41074312489345</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>40.02229958525768</v>
+        <v>45.61639603822021</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-3.557258226765121</v>
+        <v>-0.9333476642632235</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>33.26357653931525</v>
+        <v>31.97749591087069</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>50.41376619778823</v>
+        <v>53.07404331080699</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.80361533876755</v>
+        <v>29.65632509092341</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.62401574236419</v>
+        <v>38.63471312574633</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.77471194697426</v>
+        <v>51.90138949605802</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>9.803402167612614</v>
+        <v>8.327909558132482</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>44.08797979443844</v>
+        <v>44.01468115463747</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>55.03172397137808</v>
+        <v>56.64299136600508</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.67461588660462</v>
+        <v>15.46603195628066</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.12866726880415</v>
+        <v>27.29464103653162</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>38.06356875966467</v>
+        <v>37.69839823792728</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.025232475572533</v>
+        <v>5.670780249420673</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.7849805656407</v>
+        <v>25.59418939446582</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>42.60378265801453</v>
+        <v>42.84547314348782</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-1.423470087401931</v>
+        <v>0.06288600374790576</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>44.88606463158849</v>
+        <v>43.64041228268888</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>59.23924794628741</v>
+        <v>60.76658875980108</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>59.56848884146896</v>
+        <v>58.31863092891059</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>62.90964720465245</v>
+        <v>60.6035461247092</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>74.18330105046731</v>
+        <v>75.30559487682154</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>15.71586295641001</v>
+        <v>12.86020292822296</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>54.30878026591979</v>
+        <v>50.87798134178866</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>70.94232898171282</v>
+        <v>70.77951019944658</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.76208410812739</v>
+        <v>21.13417126642367</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>32.72374298518921</v>
+        <v>30.39214026306578</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>38.2358582468752</v>
+        <v>36.24369515243316</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.075540430268141</v>
+        <v>7.95390840835698</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>44.94985909913227</v>
+        <v>43.84102292718711</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>47.38322534068705</v>
+        <v>46.59650585934799</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>10.43180643797086</v>
+        <v>10.39071117365832</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>61.63851323077283</v>
+        <v>60.14114204371537</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>59.22791114746085</v>
+        <v>58.72232423382124</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>65.16529104442304</v>
+        <v>64.24223928505637</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>66.43080503474484</v>
+        <v>65.47770261639909</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>68.79789544824806</v>
+        <v>68.92033712948503</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>23.40797681585495</v>
+        <v>22.43540512445142</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>43.57944146895851</v>
+        <v>36.98821193875667</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>67.64304955848931</v>
+        <v>66.71030766104468</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.43871257295046</v>
+        <v>25.90828810175779</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>41.18171812258011</v>
+        <v>39.78035119238484</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>41.8042409614999</v>
+        <v>40.50728747967814</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>7.791569173297102</v>
+        <v>7.931156295887885</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>37.5273653504745</v>
+        <v>36.68003795422276</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>40.77436179619326</v>
+        <v>40.80951090465808</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>8.64514673724063</v>
+        <v>9.224077332691078</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>56.22585668810068</v>
+        <v>55.77542283983887</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>61.00987339479936</v>
+        <v>61.03395876245231</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>54.22765050430084</v>
+        <v>52.76017444336792</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>57.54972999010644</v>
+        <v>56.53474815144749</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>59.25085221222774</v>
+        <v>60.21153222133191</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.17858316980233</v>
+        <v>26.54577449813568</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>60.6636669921076</v>
+        <v>59.40947718694309</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>63.80858675343914</v>
+        <v>62.99273328254043</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.06201225150535</v>
+        <v>26.18111846932781</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.42200218682798</v>
+        <v>41.31971246816546</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>45.87596848160662</v>
+        <v>45.5284163349234</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>7.719082337596554</v>
+        <v>7.835703475604884</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>43.98468629202012</v>
+        <v>43.25641922742422</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>46.54385455144966</v>
+        <v>46.85277834812857</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>7.832007742050042</v>
+        <v>8.174408187143122</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>66.90830083327725</v>
+        <v>67.15735474812074</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>68.6363528658847</v>
+        <v>69.69029124470757</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>77.46898357399398</v>
+        <v>76.4722254236741</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>77.47640890078665</v>
+        <v>76.57808841949803</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>81.1221089645605</v>
+        <v>81.80072170075633</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>30.85850526340648</v>
+        <v>29.79538503421513</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>71.78257808960237</v>
+        <v>70.41555447545869</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>79.11195153191399</v>
+        <v>78.59301689826552</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>13.07357061043697</v>
+        <v>13.3697812980406</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>31.31021237792278</v>
+        <v>29.69063351206081</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>35.33926894577662</v>
+        <v>34.82847710474095</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>4.384249428606203</v>
+        <v>4.848657892132778</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>37.82022357111428</v>
+        <v>36.02830114394575</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>41.9430965113174</v>
+        <v>42.3134798732931</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>3.78653938990508</v>
+        <v>4.613547171351126</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>54.15539630938395</v>
+        <v>52.66199131398179</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>54.74872207694183</v>
+        <v>55.59077619255137</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>56.23193990380144</v>
+        <v>55.90880475994679</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>64.94546980304048</v>
+        <v>64.41083004599744</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>61.65762359361375</v>
+        <v>62.18848013541495</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>12.06597866821238</v>
+        <v>10.1390690436208</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>56.01273162840743</v>
+        <v>52.7074869216863</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>59.72836507013924</v>
+        <v>59.5465406117206</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>14.70121327697473</v>
+        <v>13.76669609345714</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>35.41260426254347</v>
+        <v>33.88267149737246</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.19145823158897</v>
+        <v>35.71046328364928</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>3.113394976285864</v>
+        <v>4.094372487774553</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>32.48941991368103</v>
+        <v>31.75325963027138</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.6661541831463</v>
+        <v>36.18652034564629</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>3.100905042362559</v>
+        <v>4.821225977724882</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.16852706276195</v>
+        <v>48.36915796061483</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>57.36534434464443</v>
+        <v>57.77937721201948</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>47.52443465865514</v>
+        <v>46.72767004772654</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>56.303408196398</v>
+        <v>55.11886477409401</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>55.04530056646557</v>
+        <v>55.75575378630755</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>11.32956830719149</v>
+        <v>10.50171883933304</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>58.33372023381636</v>
+        <v>56.90041317201087</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>60.66892515487265</v>
+        <v>60.77727263839235</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>13.98468991243282</v>
+        <v>12.09471914761405</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.0102760788152</v>
+        <v>31.67351480964971</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>40.40251544984233</v>
+        <v>39.70321451104982</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>1.563964314197953</v>
+        <v>1.908387010987283</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>35.59328301555382</v>
+        <v>35.50241256050523</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>43.17317728272638</v>
+        <v>43.51909154308092</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>2.373277602383418</v>
+        <v>3.049018352008801</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>52.85286767595709</v>
+        <v>51.50073019862267</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>64.33424001072906</v>
+        <v>64.81881260023346</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>62.44103954564495</v>
+        <v>61.04571386374094</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>71.068213033262</v>
+        <v>70.31946708606372</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>79.20521216455012</v>
+        <v>79.79270567939683</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>10.65784667655349</v>
+        <v>7.834405503325279</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>62.39784730083482</v>
+        <v>60.37561558926978</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>74.62679187719624</v>
+        <v>73.87811750740653</v>
       </c>
     </row>
   </sheetData>
